--- a/Outputs/1. Budget/Grid Search/Output Files/400000/Output_1_15.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/400000/Output_1_15.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>661684.6769309756</v>
+        <v>646370.2268446642</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18327015.93006067</v>
+        <v>18327015.93006068</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5380430.11657762</v>
+        <v>5380430.116577621</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>1.809496073036132</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -668,16 +668,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>94.41048699370604</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V2" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -738,7 +738,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>58.47078044334126</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -795,13 +795,13 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>184.6308886574542</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -908,13 +908,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.809496073036188</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y5" t="n">
-        <v>241.0142888776591</v>
+        <v>212.2853856434421</v>
       </c>
     </row>
     <row r="6">
@@ -975,7 +975,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>116.325098768111</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -984,7 +984,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>76.78074799938824</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1041,7 +1041,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1072,13 +1072,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1093,13 +1093,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1133,73 +1133,73 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>200.3360962888297</v>
+      </c>
+      <c r="W8" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D8" t="n">
+      <c r="X8" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
+      <c r="Y8" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W8" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1212,7 +1212,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>115.5785074418532</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -1257,25 +1257,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0.9634147202720031</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -1303,13 +1303,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>220.2131257424249</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1421,7 +1421,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>202.2946864288972</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1430,10 +1430,10 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>241.0142888776591</v>
@@ -1449,7 +1449,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1470,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1515,7 +1515,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>29.05241763862477</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1628,7 +1628,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1649,16 +1649,16 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>52.42556848774752</v>
       </c>
       <c r="U14" t="n">
         <v>241.0142888776591</v>
@@ -1667,13 +1667,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>232.3303155802432</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -1701,10 +1701,10 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1737,22 +1737,22 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>149.5319952194101</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>35.40726547353844</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1825,7 +1825,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1853,61 +1853,61 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
+        <v>202.2946864288972</v>
+      </c>
+      <c r="X17" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="I17" t="n">
-        <v>200.3360962888296</v>
-      </c>
-      <c r="J17" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0</v>
-      </c>
-      <c r="X17" t="n">
-        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1938,13 +1938,13 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>29.05241763862477</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1968,25 +1968,25 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>35.74905915623028</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2002,7 +2002,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2044,13 +2044,13 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2078,10 +2078,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="C20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2093,7 +2093,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2102,7 +2102,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2123,7 +2123,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>190.3453970742846</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2160,28 +2160,28 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>21.05076859377318</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>4.580549094716531</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2211,13 +2211,13 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -2293,13 +2293,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2318,7 +2318,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2327,7 +2327,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -2360,7 +2360,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>3.265316057196634</v>
+        <v>3.265316057196859</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -2372,13 +2372,13 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2397,7 +2397,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
@@ -2409,16 +2409,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>8.583694061601685</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>112.1161336833929</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -2460,7 +2460,7 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2494,13 +2494,13 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2558,25 +2558,25 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>190.3453970742847</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>62.4162677022923</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -2597,10 +2597,10 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2609,19 +2609,19 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y26" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0</v>
-      </c>
-      <c r="X26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2634,7 +2634,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>97.01986919358306</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2655,7 +2655,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2685,16 +2685,16 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>50.05769526855297</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
@@ -2725,52 +2725,52 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>0</v>
-      </c>
-      <c r="R28" t="n">
-        <v>0</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0</v>
-      </c>
-      <c r="T28" t="n">
-        <v>0</v>
-      </c>
-      <c r="U28" t="n">
-        <v>0</v>
-      </c>
-      <c r="V28" t="n">
-        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2789,22 +2789,22 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C29" t="n">
-        <v>200.3360962888296</v>
-      </c>
-      <c r="D29" t="n">
+      <c r="F29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2813,7 +2813,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -2852,13 +2852,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
     </row>
     <row r="30">
@@ -2919,10 +2919,10 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>118.3634851578964</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>83.03189205754168</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -2931,13 +2931,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2950,7 +2950,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -3001,7 +3001,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3026,76 +3026,76 @@
         </is>
       </c>
       <c r="B32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C32" t="n">
-        <v>0</v>
-      </c>
-      <c r="D32" t="n">
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E32" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
-      </c>
-      <c r="V32" t="n">
-        <v>0</v>
-      </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>200.3360962888296</v>
       </c>
       <c r="Y32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3105,7 +3105,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -3120,16 +3120,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>45.27093583804391</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -3162,19 +3162,19 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>116.325098768111</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3199,7 +3199,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3244,7 +3244,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3266,7 +3266,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>3.26531605719669</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3275,7 +3275,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>200.3360962888296</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -3287,7 +3287,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3332,7 +3332,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="Y35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3342,10 +3342,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -3354,7 +3354,7 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3390,28 +3390,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>110.1497834296626</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>145.3652744469517</v>
       </c>
       <c r="W36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3439,7 +3439,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3490,7 +3490,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3503,65 +3503,65 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G38" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>3.265316057196634</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0</v>
-      </c>
-      <c r="S38" t="n">
-        <v>209.0200695862453</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0</v>
-      </c>
-      <c r="V38" t="n">
-        <v>0</v>
-      </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
@@ -3569,7 +3569,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3579,16 +3579,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>12.94771755361648</v>
+        <v>128.9764887865587</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -3630,25 +3630,25 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3664,52 +3664,52 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="n">
-        <v>0</v>
-      </c>
-      <c r="S40" t="n">
-        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3740,28 +3740,28 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>52.42556848774763</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>1.809496073036188</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -3782,10 +3782,10 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3819,22 +3819,22 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3864,10 +3864,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>29.79900896488251</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>129.4543293520206</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -3876,13 +3876,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -3922,7 +3922,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -3958,10 +3958,10 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>110.9174757594851</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3989,16 +3989,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>58.39471844666272</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4019,13 +4019,13 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>223.0958495641314</v>
@@ -4040,7 +4040,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>112.3289263072337</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4056,28 +4056,28 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>30.58282315618644</v>
       </c>
       <c r="H45" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4101,16 +4101,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>145.4467082856156</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -4119,7 +4119,7 @@
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -4186,13 +4186,13 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U46" t="n">
-        <v>0</v>
-      </c>
-      <c r="V46" t="n">
-        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>19.28114311021272</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="C2" t="n">
-        <v>19.28114311021272</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="D2" t="n">
-        <v>19.28114311021272</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="E2" t="n">
-        <v>19.28114311021272</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="F2" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="G2" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H2" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I2" t="n">
         <v>19.28114311021272</v>
@@ -4352,28 +4352,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R2" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S2" t="n">
-        <v>601.5428246748836</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T2" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U2" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V2" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W2" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X2" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y2" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>78.34253749742612</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C3" t="n">
-        <v>78.34253749742612</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D3" t="n">
-        <v>78.34253749742612</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E3" t="n">
-        <v>78.34253749742612</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F3" t="n">
-        <v>78.34253749742612</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G3" t="n">
-        <v>78.34253749742612</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H3" t="n">
-        <v>78.34253749742612</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I3" t="n">
         <v>19.28114311021272</v>
@@ -4413,46 +4413,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>248.2447175439888</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>486.8488635328713</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N3" t="n">
-        <v>725.4530095217538</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O3" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P3" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U3" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V3" t="n">
-        <v>454.3181732824481</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W3" t="n">
-        <v>454.3181732824481</v>
+        <v>777.5613083818946</v>
       </c>
       <c r="X3" t="n">
-        <v>454.3181732824481</v>
+        <v>569.7098081763618</v>
       </c>
       <c r="Y3" t="n">
-        <v>246.5578745174942</v>
+        <v>361.9495094114078</v>
       </c>
     </row>
     <row r="4">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C5" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D5" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E5" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F5" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G5" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H5" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
         <v>19.28114311021272</v>
@@ -4604,13 +4604,13 @@
         <v>720.6083788665362</v>
       </c>
       <c r="W5" t="n">
-        <v>720.6083788665362</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="X5" t="n">
-        <v>720.6083788665362</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="Y5" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>136.7812428759814</v>
+        <v>243.3720121938209</v>
       </c>
       <c r="C6" t="n">
-        <v>19.28114311021272</v>
+        <v>243.3720121938209</v>
       </c>
       <c r="D6" t="n">
-        <v>19.28114311021272</v>
+        <v>243.3720121938209</v>
       </c>
       <c r="E6" t="n">
-        <v>19.28114311021272</v>
+        <v>243.3720121938209</v>
       </c>
       <c r="F6" t="n">
-        <v>19.28114311021272</v>
+        <v>96.83745422070589</v>
       </c>
       <c r="G6" t="n">
-        <v>19.28114311021272</v>
+        <v>96.83745422070589</v>
       </c>
       <c r="H6" t="n">
-        <v>19.28114311021272</v>
+        <v>96.83745422070589</v>
       </c>
       <c r="I6" t="n">
         <v>19.28114311021272</v>
@@ -4650,16 +4650,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M6" t="n">
-        <v>487.8483949674443</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N6" t="n">
-        <v>726.4525409563269</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O6" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P6" t="n">
         <v>894.6625969973069</v>
@@ -4668,28 +4668,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W6" t="n">
-        <v>720.6083788665362</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="X6" t="n">
-        <v>512.7568786610034</v>
+        <v>411.587349213889</v>
       </c>
       <c r="Y6" t="n">
-        <v>304.9965798960495</v>
+        <v>411.587349213889</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4741,34 +4741,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>506.1786963984129</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="C8" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="D8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4838,16 +4838,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V8" t="n">
-        <v>720.6083788665362</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="W8" t="n">
-        <v>506.1786963984129</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="X8" t="n">
-        <v>506.1786963984129</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="Y8" t="n">
-        <v>506.1786963984129</v>
+        <v>31.35113235729608</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>110.334904905842</v>
+        <v>136.7812428759814</v>
       </c>
       <c r="C9" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D9" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E9" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F9" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G9" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H9" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I9" t="n">
         <v>20.03527576299844</v>
@@ -4890,13 +4890,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>613.2059550252818</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N9" t="n">
-        <v>851.8101010141643</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O9" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P9" t="n">
         <v>894.6625969973069</v>
@@ -4905,28 +4905,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>486.3105406908639</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V9" t="n">
-        <v>486.3105406908639</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W9" t="n">
-        <v>486.3105406908639</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X9" t="n">
-        <v>486.3105406908639</v>
+        <v>512.7568786610034</v>
       </c>
       <c r="Y9" t="n">
-        <v>278.55024192591</v>
+        <v>304.9965798960495</v>
       </c>
     </row>
     <row r="10">
@@ -4951,10 +4951,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="G10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
         <v>19.28114311021272</v>
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>19.28114311021272</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="C11" t="n">
         <v>19.28114311021272</v>
@@ -5069,22 +5069,22 @@
         <v>953.9655401424092</v>
       </c>
       <c r="T11" t="n">
-        <v>749.627473042513</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U11" t="n">
-        <v>749.627473042513</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="V11" t="n">
-        <v>749.627473042513</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="W11" t="n">
-        <v>506.1786963984129</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="X11" t="n">
-        <v>262.7299197543128</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="Y11" t="n">
-        <v>19.28114311021272</v>
+        <v>485.167420504237</v>
       </c>
     </row>
     <row r="12">
@@ -5094,49 +5094,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>20.03527576299844</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="C12" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D12" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E12" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F12" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G12" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H12" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I12" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J12" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M12" t="n">
-        <v>487.8483949674443</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N12" t="n">
-        <v>725.4530095217538</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O12" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P12" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q12" t="n">
         <v>964.0571555106362</v>
@@ -5163,7 +5163,7 @@
         <v>49.38115216564972</v>
       </c>
       <c r="Y12" t="n">
-        <v>20.03527576299844</v>
+        <v>49.38115216564972</v>
       </c>
     </row>
     <row r="13">
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H13" t="n">
         <v>19.28114311021272</v>
@@ -5252,28 +5252,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C14" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D14" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E14" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F14" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G14" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H14" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I14" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J14" t="n">
         <v>19.28114311021272</v>
@@ -5297,31 +5297,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q14" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R14" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S14" t="n">
-        <v>752.9257720901863</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T14" t="n">
-        <v>752.9257720901863</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U14" t="n">
-        <v>509.4769954460863</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V14" t="n">
-        <v>266.0282188019862</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W14" t="n">
-        <v>266.0282188019862</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X14" t="n">
-        <v>266.0282188019862</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y14" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="15">
@@ -5331,25 +5331,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>19.28114311021272</v>
+        <v>397.4029371266039</v>
       </c>
       <c r="C15" t="n">
-        <v>19.28114311021272</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="D15" t="n">
-        <v>19.28114311021272</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="E15" t="n">
-        <v>19.28114311021272</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="F15" t="n">
-        <v>19.28114311021272</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="G15" t="n">
-        <v>19.28114311021272</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H15" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I15" t="n">
         <v>19.28114311021272</v>
@@ -5358,19 +5358,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K15" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M15" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N15" t="n">
-        <v>725.4530095217538</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O15" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P15" t="n">
         <v>964.0571555106362</v>
@@ -5385,22 +5385,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T15" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U15" t="n">
-        <v>533.6469426057913</v>
+        <v>813.0147360970907</v>
       </c>
       <c r="V15" t="n">
-        <v>298.4948343740486</v>
+        <v>813.0147360970907</v>
       </c>
       <c r="W15" t="n">
-        <v>55.04605772994853</v>
+        <v>813.0147360970907</v>
       </c>
       <c r="X15" t="n">
-        <v>19.28114311021272</v>
+        <v>605.1632358915579</v>
       </c>
       <c r="Y15" t="n">
-        <v>19.28114311021272</v>
+        <v>397.4029371266039</v>
       </c>
     </row>
     <row r="16">
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I16" t="n">
         <v>19.28114311021272</v>
@@ -5473,13 +5473,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="17">
@@ -5489,28 +5489,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C17" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D17" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E17" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F17" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G17" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H17" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5534,31 +5534,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W17" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X17" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y17" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="18">
@@ -5568,28 +5568,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>222.9499078454769</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="C18" t="n">
-        <v>222.9499078454769</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="D18" t="n">
-        <v>222.9499078454769</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="E18" t="n">
-        <v>222.9499078454769</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="F18" t="n">
-        <v>222.9499078454769</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="G18" t="n">
-        <v>222.9499078454769</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="H18" t="n">
-        <v>109.5807722530562</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="I18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
@@ -5598,46 +5598,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>234.810827406191</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M18" t="n">
-        <v>473.4149733950735</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N18" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O18" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P18" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T18" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U18" t="n">
-        <v>259.0600686093459</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V18" t="n">
-        <v>222.9499078454769</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W18" t="n">
-        <v>222.9499078454769</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X18" t="n">
-        <v>222.9499078454769</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y18" t="n">
-        <v>222.9499078454769</v>
+        <v>49.38115216564972</v>
       </c>
     </row>
     <row r="19">
@@ -5647,7 +5647,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C19" t="n">
         <v>19.28114311021272</v>
@@ -5692,31 +5692,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q19" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="20">
@@ -5726,31 +5726,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="C20" t="n">
+        <v>274.7999090013961</v>
+      </c>
+      <c r="D20" t="n">
+        <v>274.7999090013961</v>
+      </c>
+      <c r="E20" t="n">
+        <v>274.7999090013961</v>
+      </c>
+      <c r="F20" t="n">
+        <v>274.7999090013961</v>
+      </c>
+      <c r="G20" t="n">
+        <v>31.35113235729607</v>
+      </c>
+      <c r="H20" t="n">
+        <v>31.35113235729607</v>
+      </c>
+      <c r="I20" t="n">
+        <v>31.35113235729607</v>
+      </c>
+      <c r="J20" t="n">
         <v>19.28114311021272</v>
-      </c>
-      <c r="D20" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="E20" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="F20" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="G20" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="H20" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="I20" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="J20" t="n">
-        <v>19.28114311021275</v>
       </c>
       <c r="K20" t="n">
         <v>122.2961490211351</v>
@@ -5762,40 +5762,40 @@
         <v>519.3476278686978</v>
       </c>
       <c r="N20" t="n">
-        <v>725.2021500759372</v>
+        <v>725.2021500759371</v>
       </c>
       <c r="O20" t="n">
-        <v>874.3971002185853</v>
+        <v>874.3971002185851</v>
       </c>
       <c r="P20" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Q20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424089</v>
       </c>
       <c r="R20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424089</v>
       </c>
       <c r="S20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424089</v>
       </c>
       <c r="T20" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424089</v>
       </c>
       <c r="U20" t="n">
-        <v>506.1786963984129</v>
+        <v>953.9655401424089</v>
       </c>
       <c r="V20" t="n">
-        <v>262.7299197543128</v>
+        <v>953.9655401424089</v>
       </c>
       <c r="W20" t="n">
-        <v>262.7299197543128</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="X20" t="n">
-        <v>262.7299197543128</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="Y20" t="n">
-        <v>262.7299197543128</v>
+        <v>518.2486856454962</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>23.90796037760316</v>
+        <v>689.4702815141906</v>
       </c>
       <c r="C21" t="n">
-        <v>23.90796037760316</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="D21" t="n">
-        <v>23.90796037760316</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E21" t="n">
-        <v>23.90796037760316</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F21" t="n">
-        <v>23.90796037760316</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G21" t="n">
-        <v>23.90796037760316</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H21" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363992</v>
       </c>
       <c r="M21" t="n">
-        <v>487.8483949674443</v>
+        <v>542.8095319084027</v>
       </c>
       <c r="N21" t="n">
-        <v>542.809531908403</v>
+        <v>542.8095319084027</v>
       </c>
       <c r="O21" t="n">
-        <v>781.4136778972854</v>
+        <v>781.4136778972852</v>
       </c>
       <c r="P21" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Q21" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="R21" t="n">
-        <v>862.8876260635219</v>
+        <v>862.8876260635217</v>
       </c>
       <c r="S21" t="n">
-        <v>689.4702815141908</v>
+        <v>689.4702815141906</v>
       </c>
       <c r="T21" t="n">
-        <v>487.2836868729568</v>
+        <v>689.4702815141906</v>
       </c>
       <c r="U21" t="n">
-        <v>259.0600686093459</v>
+        <v>689.4702815141906</v>
       </c>
       <c r="V21" t="n">
-        <v>23.90796037760316</v>
+        <v>689.4702815141906</v>
       </c>
       <c r="W21" t="n">
-        <v>23.90796037760316</v>
+        <v>689.4702815141906</v>
       </c>
       <c r="X21" t="n">
-        <v>23.90796037760316</v>
+        <v>689.4702815141906</v>
       </c>
       <c r="Y21" t="n">
-        <v>23.90796037760316</v>
+        <v>689.4702815141906</v>
       </c>
     </row>
     <row r="22">
@@ -5941,10 +5941,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W22" t="n">
         <v>19.28114311021272</v>
@@ -5963,16 +5963,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543127</v>
       </c>
       <c r="C23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F23" t="n">
         <v>19.28114311021272</v>
@@ -6008,31 +6008,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>960.7588564629629</v>
+        <v>960.7588564629626</v>
       </c>
       <c r="R23" t="n">
-        <v>960.7588564629629</v>
+        <v>960.7588564629626</v>
       </c>
       <c r="S23" t="n">
-        <v>749.627473042513</v>
+        <v>749.6274730425127</v>
       </c>
       <c r="T23" t="n">
-        <v>749.627473042513</v>
+        <v>749.6274730425127</v>
       </c>
       <c r="U23" t="n">
-        <v>506.1786963984129</v>
+        <v>506.1786963984127</v>
       </c>
       <c r="V23" t="n">
-        <v>506.1786963984129</v>
+        <v>506.1786963984127</v>
       </c>
       <c r="W23" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543127</v>
       </c>
       <c r="X23" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543127</v>
       </c>
       <c r="Y23" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543127</v>
       </c>
     </row>
     <row r="24">
@@ -6042,28 +6042,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>474.7416984028202</v>
+        <v>795.8418184905679</v>
       </c>
       <c r="C24" t="n">
-        <v>474.7416984028202</v>
+        <v>621.3887892094409</v>
       </c>
       <c r="D24" t="n">
-        <v>325.807288741569</v>
+        <v>472.4543795481896</v>
       </c>
       <c r="E24" t="n">
-        <v>166.5698337361135</v>
+        <v>313.2169245427341</v>
       </c>
       <c r="F24" t="n">
-        <v>20.03527576299844</v>
+        <v>166.6823665696191</v>
       </c>
       <c r="G24" t="n">
-        <v>20.03527576299844</v>
+        <v>27.95154115223463</v>
       </c>
       <c r="H24" t="n">
-        <v>20.03527576299844</v>
+        <v>27.95154115223463</v>
       </c>
       <c r="I24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
@@ -6078,40 +6078,40 @@
         <v>487.8483949674443</v>
       </c>
       <c r="N24" t="n">
-        <v>725.4530095217538</v>
+        <v>726.4525409563266</v>
       </c>
       <c r="O24" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="P24" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Q24" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="R24" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="S24" t="n">
-        <v>850.8085356284212</v>
+        <v>964.057155510636</v>
       </c>
       <c r="T24" t="n">
-        <v>850.8085356284212</v>
+        <v>964.057155510636</v>
       </c>
       <c r="U24" t="n">
-        <v>850.8085356284212</v>
+        <v>964.057155510636</v>
       </c>
       <c r="V24" t="n">
-        <v>850.8085356284212</v>
+        <v>964.057155510636</v>
       </c>
       <c r="W24" t="n">
-        <v>850.8085356284212</v>
+        <v>964.057155510636</v>
       </c>
       <c r="X24" t="n">
-        <v>642.9570354228883</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Y24" t="n">
-        <v>642.9570354228883</v>
+        <v>964.057155510636</v>
       </c>
     </row>
     <row r="25">
@@ -6121,31 +6121,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I25" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J25" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K25" t="n">
         <v>19.28114311021272</v>
@@ -6175,22 +6175,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="26">
@@ -6200,28 +6200,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>325.7766548071333</v>
+        <v>467.067986854209</v>
       </c>
       <c r="C26" t="n">
-        <v>325.7766548071333</v>
+        <v>467.067986854209</v>
       </c>
       <c r="D26" t="n">
-        <v>82.32787816303323</v>
+        <v>467.067986854209</v>
       </c>
       <c r="E26" t="n">
-        <v>82.32787816303323</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F26" t="n">
-        <v>82.32787816303323</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G26" t="n">
-        <v>82.32787816303323</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H26" t="n">
-        <v>82.32787816303323</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J26" t="n">
         <v>19.28114311021272</v>
@@ -6245,31 +6245,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S26" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T26" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U26" t="n">
-        <v>569.2254314512334</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V26" t="n">
-        <v>569.2254314512334</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W26" t="n">
-        <v>569.2254314512334</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X26" t="n">
-        <v>569.2254314512334</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y26" t="n">
-        <v>569.2254314512334</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="27">
@@ -6279,28 +6279,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>19.28114311021272</v>
+        <v>118.0351436353046</v>
       </c>
       <c r="C27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
@@ -6312,16 +6312,16 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M27" t="n">
+        <v>249.2442489785619</v>
+      </c>
+      <c r="N27" t="n">
         <v>487.8483949674443</v>
       </c>
-      <c r="N27" t="n">
-        <v>542.809531908403</v>
-      </c>
       <c r="O27" t="n">
-        <v>781.4136778972854</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="P27" t="n">
-        <v>964.0571555106362</v>
+        <v>909.0960185696777</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
@@ -6333,22 +6333,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U27" t="n">
-        <v>913.4938269565423</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V27" t="n">
-        <v>678.3417187247995</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="W27" t="n">
-        <v>434.8929420806995</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="X27" t="n">
-        <v>227.0414418751666</v>
+        <v>325.7954424002585</v>
       </c>
       <c r="Y27" t="n">
-        <v>19.28114311021272</v>
+        <v>118.0351436353046</v>
       </c>
     </row>
     <row r="28">
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G28" t="n">
         <v>19.28114311021272</v>
@@ -6418,16 +6418,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6437,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>477.1596022224361</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C29" t="n">
-        <v>274.7999090013961</v>
+        <v>749.627473042513</v>
       </c>
       <c r="D29" t="n">
-        <v>31.35113235729608</v>
+        <v>749.627473042513</v>
       </c>
       <c r="E29" t="n">
-        <v>31.35113235729608</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F29" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J29" t="n">
         <v>19.28114311021272</v>
@@ -6500,13 +6500,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W29" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X29" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y29" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="30">
@@ -6543,16 +6543,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>486.8488635328713</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N30" t="n">
-        <v>725.4530095217538</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O30" t="n">
         <v>964.0571555106362</v>
@@ -6567,22 +6567,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>844.4980795935692</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>844.4980795935692</v>
+        <v>880.1865574727153</v>
       </c>
       <c r="U30" t="n">
-        <v>844.4980795935692</v>
+        <v>880.1865574727153</v>
       </c>
       <c r="V30" t="n">
-        <v>609.3459713618265</v>
+        <v>645.0344492409727</v>
       </c>
       <c r="W30" t="n">
-        <v>609.3459713618265</v>
+        <v>401.5856725968725</v>
       </c>
       <c r="X30" t="n">
-        <v>401.4944711562937</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="Y30" t="n">
         <v>193.7341723913397</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L31" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M31" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N31" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V31" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X31" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y31" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="32">
@@ -6674,28 +6674,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>477.1596022224361</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="C32" t="n">
-        <v>477.1596022224361</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="D32" t="n">
-        <v>233.7108255783361</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E32" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F32" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G32" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H32" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I32" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J32" t="n">
         <v>19.28114311021272</v>
@@ -6734,16 +6734,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V32" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W32" t="n">
-        <v>964.0571555106362</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="X32" t="n">
-        <v>964.0571555106362</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="Y32" t="n">
-        <v>720.6083788665362</v>
+        <v>274.7999090013961</v>
       </c>
     </row>
     <row r="33">
@@ -6753,40 +6753,40 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>19.28114311021272</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="C33" t="n">
-        <v>19.28114311021272</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="D33" t="n">
-        <v>19.28114311021272</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="E33" t="n">
-        <v>19.28114311021272</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="F33" t="n">
-        <v>19.28114311021272</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="G33" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H33" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N33" t="n">
         <v>725.4530095217538</v>
@@ -6801,28 +6801,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S33" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T33" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U33" t="n">
-        <v>964.0571555106362</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V33" t="n">
-        <v>846.5570557448675</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W33" t="n">
-        <v>603.1082791007675</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="X33" t="n">
-        <v>395.2567788952347</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="Y33" t="n">
-        <v>187.4964801302808</v>
+        <v>156.0631229240681</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="G34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L34" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M34" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N34" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="35">
@@ -6911,28 +6911,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>233.7108255783361</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="C35" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D35" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E35" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J35" t="n">
         <v>19.28114311021272</v>
@@ -6962,25 +6962,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S35" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T35" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U35" t="n">
-        <v>964.0571555106362</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="V35" t="n">
-        <v>964.0571555106362</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="W35" t="n">
-        <v>964.0571555106362</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="X35" t="n">
-        <v>720.6083788665362</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="Y35" t="n">
-        <v>477.1596022224361</v>
+        <v>266.0282188019862</v>
       </c>
     </row>
     <row r="36">
@@ -6990,28 +6990,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>193.7341723913397</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="C36" t="n">
-        <v>19.28114311021272</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="D36" t="n">
-        <v>19.28114311021272</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="E36" t="n">
-        <v>19.28114311021272</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="F36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
@@ -7020,46 +7020,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>248.2447175439888</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>486.8488635328713</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N36" t="n">
-        <v>725.4530095217538</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O36" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P36" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S36" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T36" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U36" t="n">
-        <v>852.7947480059265</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V36" t="n">
-        <v>852.7947480059265</v>
+        <v>542.6366709617143</v>
       </c>
       <c r="W36" t="n">
-        <v>609.3459713618265</v>
+        <v>542.6366709617143</v>
       </c>
       <c r="X36" t="n">
-        <v>401.4944711562937</v>
+        <v>334.7851707561815</v>
       </c>
       <c r="Y36" t="n">
-        <v>193.7341723913397</v>
+        <v>334.7851707561815</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="G37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="H37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L37" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M37" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N37" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C38" t="n">
-        <v>506.1786963984129</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D38" t="n">
-        <v>506.1786963984129</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="E38" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F38" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G38" t="n">
         <v>19.28114311021272</v>
@@ -7193,31 +7193,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>960.7588564629629</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>960.7588564629629</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S38" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T38" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U38" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V38" t="n">
-        <v>749.627473042513</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W38" t="n">
-        <v>749.627473042513</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X38" t="n">
-        <v>749.627473042513</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y38" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="39">
@@ -7227,13 +7227,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>206.8126749707503</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="C39" t="n">
-        <v>32.35964568962331</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="D39" t="n">
-        <v>32.35964568962331</v>
+        <v>149.5604247127973</v>
       </c>
       <c r="E39" t="n">
         <v>19.28114311021272</v>
@@ -7254,13 +7254,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2442489785619</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M39" t="n">
-        <v>487.8483949674443</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N39" t="n">
         <v>542.809531908403</v>
@@ -7278,25 +7278,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>790.6398109613051</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U39" t="n">
-        <v>790.6398109613051</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V39" t="n">
-        <v>790.6398109613051</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W39" t="n">
-        <v>790.6398109613051</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="X39" t="n">
-        <v>582.7883107557723</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="Y39" t="n">
-        <v>375.0280119908184</v>
+        <v>298.4948343740486</v>
       </c>
     </row>
     <row r="40">
@@ -7306,10 +7306,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D40" t="n">
         <v>19.28114311021272</v>
@@ -7357,25 +7357,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="41">
@@ -7385,28 +7385,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>559.1338160830064</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C41" t="n">
-        <v>559.1338160830064</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D41" t="n">
-        <v>559.1338160830064</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="E41" t="n">
-        <v>315.6850394389064</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F41" t="n">
-        <v>262.7299197543128</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G41" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="H41" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="I41" t="n">
-        <v>19.28114311021272</v>
+        <v>21.10891692136039</v>
       </c>
       <c r="J41" t="n">
         <v>19.28114311021272</v>
@@ -7430,31 +7430,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R41" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S41" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T41" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U41" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V41" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W41" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X41" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y41" t="n">
-        <v>559.1338160830064</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="42">
@@ -7464,22 +7464,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>19.28114311021272</v>
+        <v>605.0715884066004</v>
       </c>
       <c r="C42" t="n">
-        <v>19.28114311021272</v>
+        <v>430.6185591254734</v>
       </c>
       <c r="D42" t="n">
-        <v>19.28114311021272</v>
+        <v>430.6185591254734</v>
       </c>
       <c r="E42" t="n">
-        <v>19.28114311021272</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="F42" t="n">
-        <v>19.28114311021272</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="G42" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H42" t="n">
         <v>19.28114311021272</v>
@@ -7497,13 +7497,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="M42" t="n">
-        <v>234.810827406191</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N42" t="n">
-        <v>473.4149733950735</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O42" t="n">
-        <v>712.019119383956</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P42" t="n">
         <v>894.6625969973069</v>
@@ -7512,28 +7512,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R42" t="n">
-        <v>933.9571464551993</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S42" t="n">
-        <v>933.9571464551993</v>
+        <v>833.2952066702114</v>
       </c>
       <c r="T42" t="n">
-        <v>933.9571464551993</v>
+        <v>833.2952066702114</v>
       </c>
       <c r="U42" t="n">
-        <v>705.7335281915883</v>
+        <v>605.0715884066004</v>
       </c>
       <c r="V42" t="n">
-        <v>470.5814199598456</v>
+        <v>605.0715884066004</v>
       </c>
       <c r="W42" t="n">
-        <v>227.1326433157456</v>
+        <v>605.0715884066004</v>
       </c>
       <c r="X42" t="n">
-        <v>19.28114311021272</v>
+        <v>605.0715884066004</v>
       </c>
       <c r="Y42" t="n">
-        <v>19.28114311021272</v>
+        <v>605.0715884066004</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>19.28114311021272</v>
+        <v>852.019301208126</v>
       </c>
       <c r="C43" t="n">
-        <v>19.28114311021272</v>
+        <v>852.019301208126</v>
       </c>
       <c r="D43" t="n">
-        <v>19.28114311021272</v>
+        <v>852.019301208126</v>
       </c>
       <c r="E43" t="n">
-        <v>19.28114311021272</v>
+        <v>852.019301208126</v>
       </c>
       <c r="F43" t="n">
-        <v>19.28114311021272</v>
+        <v>852.019301208126</v>
       </c>
       <c r="G43" t="n">
-        <v>19.28114311021272</v>
+        <v>852.019301208126</v>
       </c>
       <c r="H43" t="n">
-        <v>19.28114311021272</v>
+        <v>852.019301208126</v>
       </c>
       <c r="I43" t="n">
-        <v>19.28114311021272</v>
+        <v>852.019301208126</v>
       </c>
       <c r="J43" t="n">
-        <v>19.28114311021272</v>
+        <v>852.019301208126</v>
       </c>
       <c r="K43" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L43" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M43" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N43" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O43" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P43" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q43" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R43" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S43" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T43" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U43" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V43" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W43" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X43" t="n">
-        <v>19.28114311021272</v>
+        <v>852.019301208126</v>
       </c>
       <c r="Y43" t="n">
-        <v>19.28114311021272</v>
+        <v>852.019301208126</v>
       </c>
     </row>
     <row r="44">
@@ -7622,31 +7622,31 @@
         </is>
       </c>
       <c r="B44" t="n">
+        <v>333.7844730889342</v>
+      </c>
+      <c r="C44" t="n">
+        <v>333.7844730889342</v>
+      </c>
+      <c r="D44" t="n">
+        <v>333.7844730889342</v>
+      </c>
+      <c r="E44" t="n">
+        <v>333.7844730889342</v>
+      </c>
+      <c r="F44" t="n">
+        <v>333.7844730889342</v>
+      </c>
+      <c r="G44" t="n">
+        <v>90.33569644483418</v>
+      </c>
+      <c r="H44" t="n">
+        <v>31.35113235729608</v>
+      </c>
+      <c r="I44" t="n">
+        <v>31.35113235729608</v>
+      </c>
+      <c r="J44" t="n">
         <v>19.28114311021272</v>
-      </c>
-      <c r="C44" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="D44" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="E44" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="F44" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="G44" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="H44" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="I44" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="J44" t="n">
-        <v>19.28114311021275</v>
       </c>
       <c r="K44" t="n">
         <v>122.2961490211351</v>
@@ -7667,31 +7667,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R44" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S44" t="n">
-        <v>601.5428246748836</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T44" t="n">
-        <v>376.1934816808115</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U44" t="n">
-        <v>132.7447050367114</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="V44" t="n">
-        <v>132.7447050367114</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="W44" t="n">
-        <v>132.7447050367114</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="X44" t="n">
-        <v>19.28114311021272</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="Y44" t="n">
-        <v>19.28114311021272</v>
+        <v>333.7844730889342</v>
       </c>
     </row>
     <row r="45">
@@ -7701,28 +7701,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>817.1412885554689</v>
+        <v>224.6259129531442</v>
       </c>
       <c r="C45" t="n">
-        <v>817.1412885554689</v>
+        <v>50.17288367201721</v>
       </c>
       <c r="D45" t="n">
-        <v>668.2068788942177</v>
+        <v>50.17288367201721</v>
       </c>
       <c r="E45" t="n">
-        <v>508.9694238887622</v>
+        <v>50.17288367201721</v>
       </c>
       <c r="F45" t="n">
-        <v>362.4348659156472</v>
+        <v>50.17288367201721</v>
       </c>
       <c r="G45" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H45" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J45" t="n">
         <v>19.28114311021272</v>
@@ -7734,7 +7734,7 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M45" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N45" t="n">
         <v>712.019119383956</v>
@@ -7749,28 +7749,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S45" t="n">
-        <v>817.1412885554689</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T45" t="n">
-        <v>817.1412885554689</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U45" t="n">
-        <v>817.1412885554689</v>
+        <v>432.4774131586771</v>
       </c>
       <c r="V45" t="n">
-        <v>817.1412885554689</v>
+        <v>432.4774131586771</v>
       </c>
       <c r="W45" t="n">
-        <v>817.1412885554689</v>
+        <v>432.4774131586771</v>
       </c>
       <c r="X45" t="n">
-        <v>817.1412885554689</v>
+        <v>224.6259129531442</v>
       </c>
       <c r="Y45" t="n">
-        <v>817.1412885554689</v>
+        <v>224.6259129531442</v>
       </c>
     </row>
     <row r="46">
@@ -7834,10 +7834,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V46" t="n">
         <v>19.28114311021272</v>
@@ -7979,7 +7979,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
@@ -8061,7 +8061,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>243.2069195535496</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>383.1483227996774</v>
@@ -8070,13 +8070,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>383.6105333221035</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P3" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8298,19 +8298,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N6" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>312.5053919605859</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8538,16 +8538,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O9" t="n">
-        <v>185.8815939223662</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8769,25 +8769,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>371.3463732493024</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O12" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9006,22 +9006,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N15" t="n">
-        <v>371.3463732493024</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -9246,22 +9246,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>356.2611315939937</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M18" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9480,19 +9480,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>383.1483227996774</v>
+        <v>312.0408247018198</v>
       </c>
       <c r="N21" t="n">
-        <v>186.8580120236956</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>383.6105333221035</v>
+        <v>383.6105333221034</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
@@ -9723,13 +9723,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>383.1483227996774</v>
+        <v>383.1483227996773</v>
       </c>
       <c r="N24" t="n">
-        <v>371.3463732493024</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -9875,7 +9875,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
@@ -9960,10 +9960,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>186.8580120236956</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
         <v>383.6105333221035</v>
@@ -9972,7 +9972,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>195.4980740263837</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10191,19 +10191,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>382.1386950879875</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -10428,7 +10428,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10437,7 +10437,7 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>371.3463732493024</v>
+        <v>244.7225752110828</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
@@ -10586,7 +10586,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10668,22 +10668,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>243.2069195535496</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O36" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10902,16 +10902,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M39" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>186.8580120236956</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
@@ -11145,7 +11145,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N42" t="n">
         <v>372.3560009609923</v>
@@ -11154,7 +11154,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>295.1552315763977</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11297,7 +11297,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11382,10 +11382,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>241.9453110519923</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N45" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133072</v>
       </c>
       <c r="O45" t="n">
         <v>142.5962444444444</v>
@@ -22544,7 +22544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>380.9243455904444</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -22556,16 +22556,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G2" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H2" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -22592,19 +22592,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>128.6853625704253</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -22613,7 +22613,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="3">
@@ -22626,7 +22626,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -22644,7 +22644,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>30.92585240807382</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -22671,10 +22671,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
@@ -22683,13 +22683,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>67.06409450346541</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -22796,13 +22796,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.4932414420988</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H5" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -22844,13 +22844,13 @@
         <v>86.73796959247585</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y5" t="n">
-        <v>145.2236497783945</v>
+        <v>173.9525530126115</v>
       </c>
     </row>
     <row r="6">
@@ -22863,7 +22863,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>56.38340022020472</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -22872,7 +22872,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>137.3435171632106</v>
@@ -22881,7 +22881,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>12.61588485202684</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -22908,7 +22908,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
@@ -22929,7 +22929,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22960,13 +22960,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22981,13 +22981,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>177.2933913771695</v>
+        <v>132.9899077786023</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -23021,10 +23021,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -23042,7 +23042,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23078,16 +23078,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>86.73796959247585</v>
+        <v>127.4161621813053</v>
       </c>
       <c r="W8" t="n">
-        <v>136.9555830739709</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="9">
@@ -23100,7 +23100,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>57.12999154646258</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -23118,7 +23118,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23145,25 +23145,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>224.9779673607028</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -23191,13 +23191,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H10" t="n">
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>22.26350734189026</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
         <v>93.35918011667277</v>
@@ -23255,10 +23255,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>145.0597660285826</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -23309,7 +23309,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>20.80116313523413</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>251.3456529078365</v>
@@ -23318,10 +23318,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>145.2236497783945</v>
@@ -23337,7 +23337,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>142.9094900234331</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
@@ -23358,7 +23358,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23403,7 +23403,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>176.6302781386796</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>46.64501259656927</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23431,7 +23431,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H13" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207155</v>
       </c>
       <c r="I13" t="n">
         <v>155.4504749272583</v>
@@ -23516,7 +23516,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23537,16 +23537,16 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>170.6702810763838</v>
       </c>
       <c r="U14" t="n">
         <v>10.33136403017744</v>
@@ -23555,13 +23555,13 @@
         <v>86.73796959247585</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>153.9076230758104</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23574,7 +23574,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
@@ -23589,10 +23589,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0.7465913262578567</v>
@@ -23625,22 +23625,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>76.40938686156474</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>170.365719729939</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -23671,7 +23671,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>155.4504749272583</v>
+        <v>22.26350734189026</v>
       </c>
       <c r="J16" t="n">
         <v>93.35918011667277</v>
@@ -23713,7 +23713,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23729,7 +23729,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -23741,19 +23741,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>10.13979328157632</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23774,7 +23774,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>149.8691179411497</v>
@@ -23792,10 +23792,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>146.9462822885158</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -23826,13 +23826,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>60.3442152127903</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23856,25 +23856,25 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>197.051527993195</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -23890,7 +23890,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325981</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23932,13 +23932,13 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
-        <v>176.9916737032986</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
         <v>227.9455894282815</v>
@@ -23966,10 +23966,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858216</v>
       </c>
       <c r="C20" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -23981,7 +23981,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>415.302737515135</v>
+        <v>174.2884486374761</v>
       </c>
       <c r="H20" t="n">
         <v>339.4748021157671</v>
@@ -23990,7 +23990,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24011,7 +24011,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411497</v>
@@ -24020,19 +24020,19 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>10.81046392068936</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>158.8955716431284</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24048,28 +24048,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>151.6577303945426</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>107.6548951417799</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24099,13 +24099,13 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
@@ -24181,13 +24181,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U22" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24206,7 +24206,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>124.2586028933485</v>
+        <v>124.2586028933486</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -24215,7 +24215,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>415.302737515135</v>
@@ -24248,7 +24248,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>6.725383157348171</v>
+        <v>6.725383157347945</v>
       </c>
       <c r="R23" t="n">
         <v>149.8691179411497</v>
@@ -24260,13 +24260,13 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>10.33136403017744</v>
+        <v>10.3313640301775</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -24285,7 +24285,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -24297,16 +24297,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>80.81293878981339</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24333,7 +24333,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>59.56703742044493</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
         <v>200.1647286948216</v>
@@ -24348,7 +24348,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -24382,13 +24382,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I25" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -24415,7 +24415,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T25" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U25" t="n">
         <v>286.3190293564909</v>
@@ -24446,25 +24446,25 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>191.5849729979771</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H26" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
-        <v>148.0596218681136</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24485,10 +24485,10 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
         <v>209.0200695862453</v>
@@ -24497,7 +24497,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -24509,7 +24509,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="27">
@@ -24522,7 +24522,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>75.68862979473268</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
@@ -24543,7 +24543,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24573,16 +24573,16 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>175.8836868124218</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -24613,7 +24613,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>34.80401177309074</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H28" t="n">
         <v>162.2271725074396</v>
@@ -24658,7 +24658,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24677,22 +24677,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>164.936795482178</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G29" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H29" t="n">
         <v>339.4748021157671</v>
@@ -24701,7 +24701,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24740,13 +24740,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>173.9525530126116</v>
       </c>
     </row>
     <row r="30">
@@ -24807,10 +24807,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>53.31968594594146</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>117.1328366372799</v>
       </c>
       <c r="U30" t="n">
         <v>225.9413820809748</v>
@@ -24819,13 +24819,13 @@
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24838,7 +24838,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325981</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24889,7 +24889,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T31" t="n">
-        <v>94.7586218429135</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U31" t="n">
         <v>286.3190293564909</v>
@@ -24914,19 +24914,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>169.6449844288197</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G32" t="n">
         <v>415.302737515135</v>
@@ -24938,7 +24938,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24974,16 +24974,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>169.3950043896394</v>
       </c>
       <c r="Y32" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -24993,7 +24993,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
@@ -25008,16 +25008,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>92.07258132516672</v>
       </c>
       <c r="H33" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25041,7 +25041,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>171.6831711038378</v>
@@ -25050,19 +25050,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>116.4754883813142</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25087,7 +25087,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309076</v>
       </c>
       <c r="H34" t="n">
         <v>162.2271725074396</v>
@@ -25132,7 +25132,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V34" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -25154,7 +25154,7 @@
         <v>141.7195527858215</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>362.0075757138109</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -25163,7 +25163,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>206.5399494528818</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>415.302737515135</v>
@@ -25175,7 +25175,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25202,13 +25202,13 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25220,7 +25220,7 @@
         <v>128.71681180081</v>
       </c>
       <c r="Y35" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25230,10 +25230,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
@@ -25242,7 +25242,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>137.3435171632106</v>
@@ -25254,7 +25254,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25278,28 +25278,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>115.7915986513122</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>87.4353127024736</v>
       </c>
       <c r="W36" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25327,7 +25327,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H37" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207158</v>
       </c>
       <c r="I37" t="n">
         <v>155.4504749272583</v>
@@ -25378,7 +25378,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25391,19 +25391,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>169.6449844288197</v>
       </c>
       <c r="F38" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H38" t="n">
         <v>339.4748021157671</v>
@@ -25433,13 +25433,13 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>6.725383157348171</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
         <v>223.0958495641314</v>
@@ -25448,7 +25448,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -25457,7 +25457,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25467,16 +25467,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>144.6973629017845</v>
+        <v>28.6685916688422</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
@@ -25518,25 +25518,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25552,7 +25552,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>15.42850543284433</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25597,7 +25597,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S40" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T40" t="n">
         <v>227.9455894282815</v>
@@ -25628,28 +25628,28 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E41" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>354.4504772539638</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I41" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>11.94928935461252</v>
+        <v>10.13979328157633</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25670,10 +25670,10 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
         <v>209.0200695862453</v>
@@ -25707,22 +25707,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>89.39663285141508</v>
@@ -25752,10 +25752,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>70.35882518776062</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>42.22884175181727</v>
       </c>
       <c r="T42" t="n">
         <v>200.1647286948216</v>
@@ -25764,13 +25764,13 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
         <v>205.6826957773044</v>
@@ -25810,7 +25810,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K43" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -25846,10 +25846,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>114.792179629552</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25877,16 +25877,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H44" t="n">
-        <v>339.4748021157671</v>
+        <v>281.0800836691044</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25907,13 +25907,13 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -25928,7 +25928,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>257.4021743712353</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -25944,28 +25944,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>106.7606940070242</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25989,16 +25989,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>26.23646281822221</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -26007,7 +26007,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -26074,13 +26074,13 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T46" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U46" t="n">
         <v>286.3190293564909</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>465309.4280328028</v>
+        <v>465309.4280328029</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>465309.4280328029</v>
+        <v>465309.4280328028</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>465309.4280328028</v>
+        <v>465309.4280328029</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>465309.4280328027</v>
+        <v>465309.4280328028</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>465309.4280328029</v>
+        <v>465309.4280328028</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>465309.4280328027</v>
+        <v>465309.4280328029</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>465309.4280328028</v>
+        <v>465309.4280328029</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>465309.4280328026</v>
+        <v>465309.4280328028</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>465309.4280328028</v>
+        <v>465309.4280328026</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>465309.4280328029</v>
+        <v>465309.4280328026</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>465309.4280328027</v>
+        <v>465309.4280328028</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>465309.4280328028</v>
+        <v>465309.4280328026</v>
       </c>
     </row>
   </sheetData>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154773</v>
+        <v>80769.43153154774</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910623</v>
+        <v>63059.94259910625</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6716.703256796494</v>
+        <v>8547.111069342403</v>
       </c>
       <c r="C4" t="n">
-        <v>6716.703256796493</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="D4" t="n">
-        <v>6716.703256796494</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="E4" t="n">
-        <v>6716.703256796494</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="F4" t="n">
-        <v>6716.703256796494</v>
+        <v>8547.111069342403</v>
       </c>
       <c r="G4" t="n">
-        <v>6716.703256796494</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="H4" t="n">
-        <v>6716.703256796494</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="I4" t="n">
-        <v>6716.703256796494</v>
+        <v>8547.111069342403</v>
       </c>
       <c r="J4" t="n">
-        <v>6716.703256796494</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="K4" t="n">
-        <v>6716.703256796494</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="L4" t="n">
-        <v>6716.703256796494</v>
+        <v>8547.111069342403</v>
       </c>
       <c r="M4" t="n">
-        <v>6716.703256796494</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="N4" t="n">
-        <v>6716.703256796494</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="O4" t="n">
-        <v>6716.703256796494</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="P4" t="n">
-        <v>6716.703256796494</v>
+        <v>8547.111069342402</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-11146.89915360661</v>
+        <v>-12977.30696615255</v>
       </c>
       <c r="C6" t="n">
-        <v>69622.53237794116</v>
+        <v>67792.12456539524</v>
       </c>
       <c r="D6" t="n">
-        <v>69622.53237794113</v>
+        <v>67792.12456539524</v>
       </c>
       <c r="E6" t="n">
-        <v>103250.1323779411</v>
+        <v>101419.7245653952</v>
       </c>
       <c r="F6" t="n">
-        <v>103250.1323779411</v>
+        <v>101419.7245653952</v>
       </c>
       <c r="G6" t="n">
-        <v>103250.1323779411</v>
+        <v>101419.7245653952</v>
       </c>
       <c r="H6" t="n">
-        <v>103250.1323779411</v>
+        <v>101419.7245653952</v>
       </c>
       <c r="I6" t="n">
-        <v>103250.1323779411</v>
+        <v>101419.7245653952</v>
       </c>
       <c r="J6" t="n">
-        <v>40190.1897788349</v>
+        <v>38359.78196628897</v>
       </c>
       <c r="K6" t="n">
-        <v>103250.1323779411</v>
+        <v>101419.7245653952</v>
       </c>
       <c r="L6" t="n">
-        <v>103250.1323779411</v>
+        <v>101419.7245653952</v>
       </c>
       <c r="M6" t="n">
-        <v>103250.1323779411</v>
+        <v>101419.7245653952</v>
       </c>
       <c r="N6" t="n">
-        <v>103250.1323779411</v>
+        <v>101419.7245653952</v>
       </c>
       <c r="O6" t="n">
-        <v>103250.1323779411</v>
+        <v>101419.7245653952</v>
       </c>
       <c r="P6" t="n">
-        <v>103250.1323779411</v>
+        <v>101419.7245653952</v>
       </c>
     </row>
   </sheetData>
@@ -26805,10 +26805,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="H4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="I4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="J4" t="n">
         <v>241.0142888776591</v>
@@ -34781,7 +34781,7 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>104.6525397736754</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
         <v>241.0142888776591</v>
@@ -34790,13 +34790,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35018,19 +35018,19 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>241.0142888776591</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>169.9091475161414</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
         <v>70.09551364982758</v>
@@ -35258,16 +35258,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>99.81127712997396</v>
+      </c>
+      <c r="O9" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N9" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O9" t="n">
-        <v>43.28534947792182</v>
-      </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
         <v>70.09551364982758</v>
@@ -35489,25 +35489,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>240.0046611659691</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O12" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35726,22 +35726,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N15" t="n">
-        <v>240.0046611659691</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35966,22 +35966,22 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>217.7067518141195</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M18" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36200,19 +36200,19 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798015</v>
       </c>
       <c r="N21" t="n">
-        <v>55.51629994036225</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="P21" t="n">
         <v>184.4883612256069</v>
@@ -36443,13 +36443,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="N24" t="n">
+        <v>241.014288877659</v>
+      </c>
+      <c r="O24" t="n">
         <v>240.0046611659691</v>
-      </c>
-      <c r="O24" t="n">
-        <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36680,10 +36680,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N27" t="n">
-        <v>55.51629994036225</v>
       </c>
       <c r="O27" t="n">
         <v>241.0142888776591</v>
@@ -36692,7 +36692,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>55.51629994036219</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36911,19 +36911,19 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37148,7 +37148,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
         <v>232.285965523585</v>
@@ -37157,7 +37157,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>240.0046611659691</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
@@ -37388,22 +37388,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>104.6525397736754</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37622,16 +37622,16 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>232.285965523585</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N39" t="n">
-        <v>55.51629994036225</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
@@ -37865,7 +37865,7 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N42" t="n">
         <v>241.0142888776591</v>
@@ -37874,7 +37874,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>161.1808241620674</v>
       </c>
       <c r="Q42" t="n">
         <v>70.09551364982758</v>
@@ -38102,10 +38102,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N45" t="n">
-        <v>241.0142888776591</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
